--- a/ponto/ponto.xlsx
+++ b/ponto/ponto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\capital\ponto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\ponto\capitalponto\ponto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="vertex42_id" hidden="1">"monthly-timesheet.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Monthly Timesheet Template"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Week Ending</t>
   </si>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -641,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -894,6 +894,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -952,7 +1043,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -1131,6 +1222,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="45" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2321,7 +2444,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2437,7 +2560,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2473,10 +2595,8 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2562,7 +2682,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2582,10 +2701,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Relatorios!$A$3:$A$4</c:f>
+              <c:f>Relatorios!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>CAPITAL IT</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>(vazio)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2593,17 +2715,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Relatorios!$B$3:$B$4</c:f>
+              <c:f>Relatorios!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D357-43D7-9E49-454BFD1D647A}"/>
             </c:ext>
@@ -2619,11 +2744,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="401188032"/>
-        <c:axId val="468650464"/>
+        <c:axId val="2044911264"/>
+        <c:axId val="2044915072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401188032"/>
+        <c:axId val="2044911264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2791,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468650464"/>
+        <c:crossAx val="2044915072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2674,7 +2799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468650464"/>
+        <c:axId val="2044915072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401188032"/>
+        <c:crossAx val="2044911264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,7 +2855,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2744,7 +2869,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2787,7 +2912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2853,7 +2977,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2889,10 +3012,8 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2978,7 +3099,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2998,10 +3118,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Relatorios!$D$3:$D$4</c:f>
+              <c:f>Relatorios!$D$3:$D$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Estudo</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>(vazio)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3009,17 +3132,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Relatorios!$E$3:$E$4</c:f>
+              <c:f>Relatorios!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B482-4065-887C-2FD6EA5C36DF}"/>
             </c:ext>
@@ -3035,11 +3161,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="468651552"/>
-        <c:axId val="468653184"/>
+        <c:axId val="2044902560"/>
+        <c:axId val="2044912896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468651552"/>
+        <c:axId val="2044902560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3208,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468653184"/>
+        <c:crossAx val="2044912896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468653184"/>
+        <c:axId val="2044912896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3226,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468651552"/>
+        <c:crossAx val="2044902560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3146,7 +3272,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3160,7 +3286,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3524,7 +3650,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3815,7 +3941,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(vazio)</c:v>
+                  <c:v>Estudo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3844,7 +3970,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Relatorios!$G$4:$G$5</c:f>
+              <c:f>Relatorios!$G$4:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CAPITAL IT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relatorios!$H$4:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9237-4BBD-BF6B-8DE789A548A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relatorios!$I$2:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3852,24 +4013,55 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Relatorios!$G$4:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CAPITAL IT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Relatorios!$H$4:$H$5</c:f>
+              <c:f>Relatorios!$I$4:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9237-4BBD-BF6B-8DE789A548A1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3881,11 +4073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="468657536"/>
-        <c:axId val="469556768"/>
+        <c:axId val="2044908000"/>
+        <c:axId val="2044913984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468657536"/>
+        <c:axId val="2044908000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +4120,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469556768"/>
+        <c:crossAx val="2044913984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,7 +4128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469556768"/>
+        <c:axId val="2044913984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,7 +4151,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468657536"/>
+        <c:crossAx val="2044908000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3973,7 +4165,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4037,7 +4228,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4052,7 +4243,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4070,7 +4261,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4210,7 +4400,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -4256,7 +4445,7 @@
           <c:showBubbleSize val="0"/>
           <c:separator>
 </c:separator>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                 <a:prstGeom prst="wedgeRectCallout">
@@ -4267,7 +4456,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -4375,7 +4563,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4395,7 +4583,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4415,7 +4603,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4435,7 +4623,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4455,7 +4643,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4533,16 +4721,18 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Relatorios!$A$3:$A$4</c:f>
+              <c:f>Relatorios!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>CAPITAL IT</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>(vazio)</c:v>
                 </c:pt>
               </c:strCache>
@@ -4550,17 +4740,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Relatorios!$B$3:$B$4</c:f>
+              <c:f>Relatorios!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
             </c:ext>
@@ -4587,7 +4780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4651,7 +4843,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -7048,58 +7240,58 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Usuário do Windows" refreshedDate="43343.41326898148" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="110">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Pablo Raphael Queiroz de Andrade" refreshedDate="43344.710175231485" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="110">
   <cacheSource type="worksheet">
     <worksheetSource ref="A11:F121" sheet="Jul-2018"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="TIPO DA ATIVIDADE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="16">
+      <sharedItems containsBlank="1" count="16">
+        <s v="Estudo"/>
         <m/>
+        <s v="Apoio Comercial" u="1"/>
+        <s v="Reunião diária" u="1"/>
+        <s v="Reunião interna" u="1"/>
+        <s v="Codificação" u="1"/>
+        <s v="Atividades de Análise" u="1"/>
         <s v="Encerramento de Sprint" u="1"/>
-        <s v="Gerenciamento de Projeto" u="1"/>
-        <s v="Codificação" u="1"/>
-        <s v="Estudo" u="1"/>
-        <s v="Produção de manual técnico" u="1"/>
         <s v="Treinamento" u="1"/>
-        <s v="Apoio Comercial" u="1"/>
+        <s v="Teste unitário" u="1"/>
         <s v="Acesso Remoto" u="1"/>
         <s v="Atividade Externa" u="1"/>
-        <s v="Atividades de Análise" u="1"/>
+        <s v="Gerenciamento de Projeto" u="1"/>
+        <s v="teste" u="1"/>
+        <s v="Produção de manual técnico" u="1"/>
         <s v="Planejamento de Sprint" u="1"/>
-        <s v="Teste unitário" u="1"/>
-        <s v="Reunião diária" u="1"/>
-        <s v="Reunião interna" u="1"/>
-        <s v="teste" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DESCRIÇÃO" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="BU" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="12">
+        <s v="CAPITAL IT"/>
         <m/>
         <s v="teste" u="1"/>
-        <s v="ATI-PI" u="1"/>
         <s v="VOBYS SUITE" u="1"/>
+        <s v="CONSEG" u="1"/>
         <s v="VOBYS TST" u="1"/>
-        <s v="CONSEG" u="1"/>
         <s v="VOBYS ISG" u="1"/>
         <s v="AEGEA GIS" u="1"/>
+        <s v="ATI-PI" u="1"/>
         <s v="COMERCIAL" u="1"/>
         <s v="DETRAN" u="1"/>
-        <s v="CAPITAL IT" u="1"/>
         <s v="PRESIDÊNCIA" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ENTRADA" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="SAIDA" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Total Hrs" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T02:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7114,880 +7306,880 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="110">
   <r>
     <x v="0"/>
-    <m/>
+    <s v="Estudo da Arquitetura WEB"/>
     <x v="0"/>
+    <s v="CAPITAL IT"/>
+    <s v="CAPITAL IT"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <d v="1899-12-30T00:00:00"/>
@@ -7996,24 +8188,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A2:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="0"/>
         <item m="1" x="9"/>
+        <item m="1" x="4"/>
+        <item m="1" x="11"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
         <item t="default"/>
       </items>
@@ -8025,7 +8217,10 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -8115,20 +8310,6 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -8140,6 +8321,20 @@
               <x v="2"/>
               <x v="8"/>
               <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1">
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -8299,27 +8494,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G2:I5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G2:J6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
       <items count="17">
+        <item m="1" x="2"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="12"/>
+        <item m="1" x="4"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item m="1" x="3"/>
         <item m="1" x="7"/>
         <item m="1" x="10"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="1"/>
-        <item m="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8327,16 +8522,16 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="0"/>
         <item m="1" x="9"/>
+        <item m="1" x="4"/>
+        <item m="1" x="11"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
         <item t="default"/>
       </items>
@@ -8348,7 +8543,10 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -8359,7 +8557,10 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="8"/>
     </i>
@@ -8446,6 +8647,17 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -8458,17 +8670,6 @@
               <x v="2"/>
               <x v="8"/>
               <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -8787,27 +8988,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="D2:E4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="D2:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
+        <item m="1" x="2"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="12"/>
+        <item m="1" x="4"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item m="1" x="3"/>
         <item m="1" x="7"/>
         <item m="1" x="10"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="1"/>
-        <item m="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8820,7 +9021,10 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="8"/>
     </i>
@@ -9253,7 +9457,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10237,21 +10441,33 @@
       </c>
     </row>
     <row r="13" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="57">
-        <f t="shared" ref="F12:F75" si="4">SUM(G13:AQ13)</f>
-        <v>0</v>
+        <f t="shared" ref="F13:F75" si="4">SUM(G13:AQ13)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="51">
+        <v>6.25E-2</v>
+      </c>
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
@@ -10291,14 +10507,16 @@
       </c>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="49" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="48"/>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -10306,7 +10524,9 @@
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="53">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="N14" s="53"/>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -11143,7 +11363,7 @@
       <c r="AQ29" s="52"/>
       <c r="AT29" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15624,7 +15844,7 @@
       <c r="E122" s="27"/>
       <c r="F122" s="59">
         <f t="shared" ref="F122" si="7">SUM(G122:AQ122)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="G122" s="25">
         <f>SUM(G12:G121)</f>
@@ -15648,11 +15868,11 @@
       </c>
       <c r="L122" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M122" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="N122" s="25">
         <f t="shared" si="8"/>
@@ -16189,7 +16409,8 @@
     <col min="6" max="6" width="7.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="35" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="35" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="35" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="35" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="35" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" style="35" bestFit="1" customWidth="1"/>
@@ -16229,7 +16450,6 @@
       <c r="H2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -16238,28 +16458,30 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>45</v>
+      <c r="A3" s="68" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="60">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>45</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="60">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="J3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -16268,28 +16490,28 @@
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="D4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="70">
         <v>0</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H4" s="63">
-        <v>0</v>
-      </c>
-      <c r="I4" s="64">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="64">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -16298,20 +16520,28 @@
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="G5" s="32" t="s">
+      <c r="A5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="61">
+      <c r="B5" s="39">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="39">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76">
         <v>0</v>
       </c>
-      <c r="I5" s="62">
+      <c r="J5" s="77">
         <v>0</v>
       </c>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -16319,15 +16549,23 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+      <c r="G6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="61">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I6" s="73">
+        <v>0</v>
+      </c>
+      <c r="J6" s="62">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -16548,12 +16786,12 @@
       <c r="A41" s="42"/>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B3">
+  <conditionalFormatting pivot="1" sqref="B3:B4">
     <cfRule type="expression" dxfId="99" priority="7">
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H4:I4">
+  <conditionalFormatting pivot="1" sqref="H4:J5">
     <cfRule type="expression" dxfId="98" priority="5">
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>
@@ -16563,7 +16801,7 @@
       <formula>WEEKDAY(A$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E3">
+  <conditionalFormatting pivot="1" sqref="E3:E4">
     <cfRule type="expression" dxfId="96" priority="3">
       <formula>WEEKDAY(E$10,1)=$E$7</formula>
     </cfRule>
@@ -16573,7 +16811,7 @@
       <formula>WEEKDAY(G$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H5:I5">
+  <conditionalFormatting pivot="1" sqref="H6:J6">
     <cfRule type="expression" dxfId="94" priority="1">
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>

--- a/ponto/ponto.xlsx
+++ b/ponto/ponto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\ponto\capitalponto\ponto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\capital\ponto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="vertex42_id" hidden="1">"monthly-timesheet.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Monthly Timesheet Template"</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Week Ending</t>
   </si>
@@ -198,11 +198,17 @@
   <si>
     <t>Estudo da Arquitetura WEB</t>
   </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -641,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -985,6 +991,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1043,7 +1060,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -1253,6 +1270,12 @@
     </xf>
     <xf numFmtId="168" fontId="46" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2444,7 +2467,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2595,7 +2618,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2720,15 +2743,15 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.14583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D357-43D7-9E49-454BFD1D647A}"/>
             </c:ext>
@@ -2855,7 +2878,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2869,7 +2892,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3012,7 +3035,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3118,13 +3141,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Relatorios!$D$3:$D$5</c:f>
+              <c:f>Relatorios!$D$3:$D$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Codificação</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Estudo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>(vazio)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3132,20 +3158,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Relatorios!$E$3:$E$5</c:f>
+              <c:f>Relatorios!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.14583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B482-4065-887C-2FD6EA5C36DF}"/>
             </c:ext>
@@ -3272,7 +3301,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3286,7 +3315,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3650,7 +3679,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3941,7 +3970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estudo</c:v>
+                  <c:v>Codificação</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3988,13 +4017,13 @@
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                <c:pt idx="1">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9237-4BBD-BF6B-8DE789A548A1}"/>
             </c:ext>
@@ -4009,7 +4038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(vazio)</c:v>
+                  <c:v>Estudo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4056,12 +4085,85 @@
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.14583333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A4B-4434-95F2-5B5CA8F4B1E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relatorios!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Relatorios!$G$4:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CAPITAL IT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relatorios!$J$4:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A4B-4434-95F2-5B5CA8F4B1E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4228,7 +4330,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4243,7 +4345,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4445,7 +4547,7 @@
           <c:showBubbleSize val="0"/>
           <c:separator>
 </c:separator>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                 <a:prstGeom prst="wedgeRectCallout">
@@ -4563,7 +4665,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4583,7 +4685,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4603,7 +4705,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4623,7 +4725,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4643,7 +4745,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
               </c:ext>
@@ -4745,15 +4847,15 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.14583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-80F6-4A3E-AF89-F4B7F5EDAB0E}"/>
             </c:ext>
@@ -4843,7 +4945,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -7240,7 +7342,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Pablo Raphael Queiroz de Andrade" refreshedDate="43344.710175231485" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="110">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Usuário do Windows" refreshedDate="43348.551612731484" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="110">
   <cacheSource type="worksheet">
     <worksheetSource ref="A11:F121" sheet="Jul-2018"/>
   </cacheSource>
@@ -7248,21 +7350,21 @@
     <cacheField name="TIPO DA ATIVIDADE" numFmtId="0">
       <sharedItems containsBlank="1" count="16">
         <s v="Estudo"/>
+        <s v="Codificação"/>
         <m/>
+        <s v="Encerramento de Sprint" u="1"/>
+        <s v="Gerenciamento de Projeto" u="1"/>
+        <s v="Produção de manual técnico" u="1"/>
+        <s v="Treinamento" u="1"/>
         <s v="Apoio Comercial" u="1"/>
+        <s v="Acesso Remoto" u="1"/>
+        <s v="Atividade Externa" u="1"/>
+        <s v="Atividades de Análise" u="1"/>
+        <s v="Planejamento de Sprint" u="1"/>
+        <s v="Teste unitário" u="1"/>
         <s v="Reunião diária" u="1"/>
         <s v="Reunião interna" u="1"/>
-        <s v="Codificação" u="1"/>
-        <s v="Atividades de Análise" u="1"/>
-        <s v="Encerramento de Sprint" u="1"/>
-        <s v="Treinamento" u="1"/>
-        <s v="Teste unitário" u="1"/>
-        <s v="Acesso Remoto" u="1"/>
-        <s v="Atividade Externa" u="1"/>
-        <s v="Gerenciamento de Projeto" u="1"/>
         <s v="teste" u="1"/>
-        <s v="Produção de manual técnico" u="1"/>
-        <s v="Planejamento de Sprint" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DESCRIÇÃO" numFmtId="0">
@@ -7273,12 +7375,12 @@
         <s v="CAPITAL IT"/>
         <m/>
         <s v="teste" u="1"/>
+        <s v="ATI-PI" u="1"/>
         <s v="VOBYS SUITE" u="1"/>
+        <s v="VOBYS TST" u="1"/>
         <s v="CONSEG" u="1"/>
-        <s v="VOBYS TST" u="1"/>
         <s v="VOBYS ISG" u="1"/>
         <s v="AEGEA GIS" u="1"/>
-        <s v="ATI-PI" u="1"/>
         <s v="COMERCIAL" u="1"/>
         <s v="DETRAN" u="1"/>
         <s v="PRESIDÊNCIA" u="1"/>
@@ -7291,7 +7393,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Total Hrs" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T02:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T05:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7313,7 +7415,23 @@
     <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
+    <x v="0"/>
+    <s v="Estudo da Arquitetura WEB"/>
+    <x v="0"/>
+    <s v="CAPITAL IT"/>
+    <s v="CAPITAL IT"/>
+    <d v="1899-12-30T01:30:00"/>
+  </r>
+  <r>
     <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7321,7 +7439,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7329,7 +7447,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7337,7 +7455,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7345,7 +7463,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7353,7 +7471,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7361,7 +7479,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7369,7 +7487,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7377,7 +7495,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7385,7 +7503,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7393,7 +7511,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7401,7 +7519,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7409,7 +7527,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7417,7 +7535,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7425,7 +7543,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7433,7 +7551,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7441,7 +7559,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7449,7 +7567,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7457,7 +7575,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7465,7 +7583,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7473,7 +7591,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7481,7 +7599,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7489,7 +7607,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7497,7 +7615,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7505,7 +7623,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7513,7 +7631,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7521,7 +7639,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7529,7 +7647,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7537,7 +7655,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7545,7 +7663,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7553,7 +7671,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7561,7 +7679,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7569,7 +7687,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7577,7 +7695,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7585,7 +7703,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7593,7 +7711,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7601,7 +7719,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7609,7 +7727,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7617,7 +7735,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7625,7 +7743,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7633,7 +7751,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7641,7 +7759,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7649,7 +7767,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7657,7 +7775,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7665,7 +7783,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7673,7 +7791,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7681,7 +7799,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7689,7 +7807,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7697,7 +7815,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7705,7 +7823,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7713,7 +7831,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7721,7 +7839,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7729,7 +7847,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7737,7 +7855,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7745,7 +7863,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7753,7 +7871,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7761,7 +7879,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7769,7 +7887,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7777,7 +7895,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7785,7 +7903,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7793,7 +7911,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7801,7 +7919,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7809,7 +7927,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7817,7 +7935,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7825,7 +7943,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7833,7 +7951,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7841,7 +7959,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7849,7 +7967,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7857,7 +7975,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7865,7 +7983,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7873,7 +7991,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7881,7 +7999,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7889,7 +8007,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7897,7 +8015,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7905,7 +8023,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7913,7 +8031,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7921,7 +8039,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7929,7 +8047,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7937,7 +8055,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7945,7 +8063,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7953,7 +8071,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7961,7 +8079,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7969,7 +8087,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7977,7 +8095,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7985,7 +8103,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -7993,7 +8111,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8001,7 +8119,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8009,7 +8127,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8017,7 +8135,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8025,7 +8143,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8033,7 +8151,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8041,7 +8159,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8049,7 +8167,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8057,7 +8175,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8065,7 +8183,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8073,7 +8191,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8081,7 +8199,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8089,7 +8207,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8097,7 +8215,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8105,7 +8223,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8113,7 +8231,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8121,7 +8239,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8129,7 +8247,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8137,7 +8255,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8145,7 +8263,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8153,7 +8271,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8161,23 +8279,7 @@
     <d v="1899-12-30T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -8188,25 +8290,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
-        <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="3"/>
         <item x="0"/>
         <item m="1" x="9"/>
-        <item m="1" x="4"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
         <item m="1" x="2"/>
-        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8310,6 +8412,20 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -8321,20 +8437,6 @@
               <x v="2"/>
               <x v="8"/>
               <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1">
-              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -8494,45 +8596,45 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G2:J6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G2:K6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
       <items count="17">
-        <item m="1" x="2"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
         <item m="1" x="6"/>
+        <item x="2"/>
         <item m="1" x="5"/>
-        <item x="0"/>
         <item m="1" x="12"/>
-        <item m="1" x="4"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="14"/>
         <item m="1" x="9"/>
         <item m="1" x="11"/>
-        <item m="1" x="15"/>
+        <item m="1" x="13"/>
         <item m="1" x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
+        <item m="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
-        <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="3"/>
         <item x="0"/>
         <item m="1" x="9"/>
-        <item m="1" x="4"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
         <item m="1" x="2"/>
-        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8557,7 +8659,10 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -8647,17 +8752,6 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -8670,6 +8764,17 @@
               <x v="2"/>
               <x v="8"/>
               <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -8988,27 +9093,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="D2:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="D2:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
-        <item m="1" x="2"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
         <item m="1" x="6"/>
+        <item x="2"/>
         <item m="1" x="5"/>
-        <item x="0"/>
         <item m="1" x="12"/>
-        <item m="1" x="4"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="14"/>
         <item m="1" x="9"/>
         <item m="1" x="11"/>
-        <item m="1" x="15"/>
+        <item m="1" x="13"/>
         <item m="1" x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
+        <item m="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9021,7 +9126,10 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -9457,7 +9565,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10508,12 +10616,20 @@
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="57">
         <f t="shared" si="4"/>
         <v>0.20833333333333334</v>
@@ -10565,14 +10681,24 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -10583,7 +10709,9 @@
       <c r="M15" s="52"/>
       <c r="N15" s="51"/>
       <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="P15" s="52">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
@@ -15844,7 +15972,7 @@
       <c r="E122" s="27"/>
       <c r="F122" s="59">
         <f t="shared" ref="F122" si="7">SUM(G122:AQ122)</f>
-        <v>0.35416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G122" s="25">
         <f>SUM(G12:G121)</f>
@@ -15884,7 +16012,7 @@
       </c>
       <c r="P122" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="Q122" s="25">
         <f t="shared" si="8"/>
@@ -16409,9 +16537,8 @@
     <col min="6" max="6" width="7.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="35" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="35" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="35" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="35" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="35" bestFit="1" customWidth="1"/>
@@ -16450,7 +16577,6 @@
       <c r="H2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -16462,27 +16588,29 @@
         <v>32</v>
       </c>
       <c r="B3" s="60">
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E3" s="60">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="J3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="K3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -16494,25 +16622,25 @@
         <v>45</v>
       </c>
       <c r="B4" s="70">
-        <v>0</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>45</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>37</v>
       </c>
       <c r="E4" s="70">
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="63">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="64">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K4"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="74">
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="64">
+        <v>0.14583333333333331</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -16524,25 +16652,27 @@
         <v>42</v>
       </c>
       <c r="B5" s="39">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="39">
-        <v>8.3333333333333329E-2</v>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="70">
+        <v>0</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76">
+      <c r="H5" s="75">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76">
         <v>0</v>
       </c>
-      <c r="J5" s="77">
-        <v>0</v>
-      </c>
-      <c r="K5"/>
+      <c r="K5" s="77">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -16552,21 +16682,27 @@
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.35416666666666663</v>
+      </c>
       <c r="G6" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="61">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="I6" s="73">
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="J6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="62">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K6"/>
+      <c r="K6" s="62">
+        <v>0.35416666666666663</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -16791,7 +16927,7 @@
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H4:J5">
+  <conditionalFormatting pivot="1" sqref="H4:K5">
     <cfRule type="expression" dxfId="98" priority="5">
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>
@@ -16801,7 +16937,7 @@
       <formula>WEEKDAY(A$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E3:E4">
+  <conditionalFormatting pivot="1" sqref="E4:E5">
     <cfRule type="expression" dxfId="96" priority="3">
       <formula>WEEKDAY(E$10,1)=$E$7</formula>
     </cfRule>
@@ -16811,7 +16947,7 @@
       <formula>WEEKDAY(G$10,1)=$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H6:J6">
+  <conditionalFormatting pivot="1" sqref="H6:K6">
     <cfRule type="expression" dxfId="94" priority="1">
       <formula>WEEKDAY(B$10,1)=$E$7</formula>
     </cfRule>
